--- a/Datos_Rendimiento_Tesis_Maestría.xlsx
+++ b/Datos_Rendimiento_Tesis_Maestría.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evarelav\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/emmanuel_varela_villegas_intel_com/Documents/Documents/Tesis_UCR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FB4D86-4E2A-4FF6-B334-BDBC31F0C4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{D6FB4D86-4E2A-4FF6-B334-BDBC31F0C4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98B35609-83A8-42D7-AC82-45ABA66A39F0}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="806" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Métricas HT-MT" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,19 @@
     <sheet name="Veloc ley teórica" sheetId="5" r:id="rId5"/>
     <sheet name="Reducción muestras" sheetId="6" r:id="rId6"/>
     <sheet name="Tamaño de outputs" sheetId="7" r:id="rId7"/>
+    <sheet name="QIIME 2  % Secuencial-Paralelo" sheetId="8" r:id="rId8"/>
+    <sheet name="Archivos" sheetId="9" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_Toc144467432" localSheetId="7">'QIIME 2  % Secuencial-Paralelo'!$A$1</definedName>
+    <definedName name="_Toc144467434" localSheetId="8">Archivos!$A$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="293">
   <si>
     <t>Procesador</t>
   </si>
@@ -399,6 +405,513 @@
   <si>
     <t>Promedio</t>
   </si>
+  <si>
+    <t>Anexo 3 Desglose del % de código secuencial y paralelo</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>Paralelo</t>
+  </si>
+  <si>
+    <t>qiime tools import --help</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>qiime demux summarize --help</t>
+  </si>
+  <si>
+    <t>qiime dada2 denoise-single --help</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>qiime feature-table --help</t>
+  </si>
+  <si>
+    <t>qiime feature-table tabulate-seqs --help</t>
+  </si>
+  <si>
+    <t>qiime feature-table filter-samples --help</t>
+  </si>
+  <si>
+    <t>qiime feature-table filter-features --help</t>
+  </si>
+  <si>
+    <t>qiime feature-classifier classify-sklearn --help</t>
+  </si>
+  <si>
+    <t>qiime metadata tabulate --help</t>
+  </si>
+  <si>
+    <t>qiime taxa filter-table --help</t>
+  </si>
+  <si>
+    <t>qiime taxa filter-seqs --help</t>
+  </si>
+  <si>
+    <t>qiime taxa barplot --help</t>
+  </si>
+  <si>
+    <t>qiime phylogeny align-to-tree-mafft-fasttree --help</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> qiime feature-table summarize --help</t>
+  </si>
+  <si>
+    <t>qiime diversity core-metrics-phylogenetic --help</t>
+  </si>
+  <si>
+    <t>qiime diversity alpha-group-significance --help</t>
+  </si>
+  <si>
+    <t>qiime diversity beta-group-significance --help</t>
+  </si>
+  <si>
+    <t>qiime emperor plot --help</t>
+  </si>
+  <si>
+    <t>Porcentaje paralelo</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>Porcentaje no paralelo</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anexo 5 Tamaño de los archivos de salida del flujo de análisis QIIME2 HT en el clúster CICIMA </t>
+  </si>
+  <si>
+    <t>Muestras</t>
+  </si>
+  <si>
+    <t>aligned-rep-seqs.qza</t>
+  </si>
+  <si>
+    <t>147K</t>
+  </si>
+  <si>
+    <t>209K</t>
+  </si>
+  <si>
+    <t>302K</t>
+  </si>
+  <si>
+    <t>bray_curtis_distance_matrix.qza</t>
+  </si>
+  <si>
+    <t>151K</t>
+  </si>
+  <si>
+    <t>173K</t>
+  </si>
+  <si>
+    <t>266K</t>
+  </si>
+  <si>
+    <t>bray_curtis_emperor.qzv</t>
+  </si>
+  <si>
+    <t>936K</t>
+  </si>
+  <si>
+    <t>940K</t>
+  </si>
+  <si>
+    <t>948K</t>
+  </si>
+  <si>
+    <t>bray_curtis_pcoa_results.qza</t>
+  </si>
+  <si>
+    <t>161K</t>
+  </si>
+  <si>
+    <t>201K</t>
+  </si>
+  <si>
+    <t>352K</t>
+  </si>
+  <si>
+    <t>evenness_vector.qza</t>
+  </si>
+  <si>
+    <t>148K</t>
+  </si>
+  <si>
+    <t>149K</t>
+  </si>
+  <si>
+    <t>faith_pd_vector.qza</t>
+  </si>
+  <si>
+    <t>faith-pd-group-significance.qzv</t>
+  </si>
+  <si>
+    <t>423K</t>
+  </si>
+  <si>
+    <t>431K</t>
+  </si>
+  <si>
+    <t>450K</t>
+  </si>
+  <si>
+    <t>feature-frequency-filtered-table.qza</t>
+  </si>
+  <si>
+    <t>77K</t>
+  </si>
+  <si>
+    <t>130K</t>
+  </si>
+  <si>
+    <t>260K</t>
+  </si>
+  <si>
+    <t>filtered-rep-seqs.qza</t>
+  </si>
+  <si>
+    <t>129K</t>
+  </si>
+  <si>
+    <t>186K</t>
+  </si>
+  <si>
+    <t>271K</t>
+  </si>
+  <si>
+    <t>filtered-table.qza</t>
+  </si>
+  <si>
+    <t>81K</t>
+  </si>
+  <si>
+    <t>143K</t>
+  </si>
+  <si>
+    <t>285K</t>
+  </si>
+  <si>
+    <t>filtered-table2.qza</t>
+  </si>
+  <si>
+    <t>182K</t>
+  </si>
+  <si>
+    <t>314K</t>
+  </si>
+  <si>
+    <t>filtered-table2.qzv</t>
+  </si>
+  <si>
+    <t>513K</t>
+  </si>
+  <si>
+    <t>541K</t>
+  </si>
+  <si>
+    <t>585K</t>
+  </si>
+  <si>
+    <t>jaccard_distance_matrix.qza</t>
+  </si>
+  <si>
+    <t>278K</t>
+  </si>
+  <si>
+    <t>jaccard_emperor.qzv</t>
+  </si>
+  <si>
+    <t>jaccard_pcoa_results.qza</t>
+  </si>
+  <si>
+    <t>418K</t>
+  </si>
+  <si>
+    <t>masked-aligned-rep-seqs.qza</t>
+  </si>
+  <si>
+    <t>205K</t>
+  </si>
+  <si>
+    <t>292K</t>
+  </si>
+  <si>
+    <t>observed_features_vector.qza</t>
+  </si>
+  <si>
+    <t>rarefied_table.qza</t>
+  </si>
+  <si>
+    <t>228K</t>
+  </si>
+  <si>
+    <t>319K</t>
+  </si>
+  <si>
+    <t>rep-seqs.qza</t>
+  </si>
+  <si>
+    <t>84K</t>
+  </si>
+  <si>
+    <t>141K</t>
+  </si>
+  <si>
+    <t>225K</t>
+  </si>
+  <si>
+    <t>rep-seqs.qzv</t>
+  </si>
+  <si>
+    <t>366K</t>
+  </si>
+  <si>
+    <t>494K</t>
+  </si>
+  <si>
+    <t>687K</t>
+  </si>
+  <si>
+    <t>rep-seqs-with-phyla-no-mitochondria-chloroplast.qza</t>
+  </si>
+  <si>
+    <t>119K</t>
+  </si>
+  <si>
+    <t>176K</t>
+  </si>
+  <si>
+    <t>262K</t>
+  </si>
+  <si>
+    <t>rep-seqs-with-phyla-no-mitochondria-chloroplasts-archaea.qza</t>
+  </si>
+  <si>
+    <t>124K</t>
+  </si>
+  <si>
+    <t>181K</t>
+  </si>
+  <si>
+    <t>264K</t>
+  </si>
+  <si>
+    <t>rooted-tree.qza</t>
+  </si>
+  <si>
+    <t>116K</t>
+  </si>
+  <si>
+    <t>142K</t>
+  </si>
+  <si>
+    <t>179K</t>
+  </si>
+  <si>
+    <t>shannon_vector.qza</t>
+  </si>
+  <si>
+    <t>shannon-group-significance.qzv</t>
+  </si>
+  <si>
+    <t>single-demux-end.qzv</t>
+  </si>
+  <si>
+    <t>293K</t>
+  </si>
+  <si>
+    <t>296K</t>
+  </si>
+  <si>
+    <t>single-end-demux.qza</t>
+  </si>
+  <si>
+    <t>221M</t>
+  </si>
+  <si>
+    <t>389M</t>
+  </si>
+  <si>
+    <t>843M</t>
+  </si>
+  <si>
+    <t>stats.qza</t>
+  </si>
+  <si>
+    <t>12K</t>
+  </si>
+  <si>
+    <t>13K</t>
+  </si>
+  <si>
+    <t>16K</t>
+  </si>
+  <si>
+    <t>stats-dada2.qzv</t>
+  </si>
+  <si>
+    <t>1.2M</t>
+  </si>
+  <si>
+    <t>table.qza</t>
+  </si>
+  <si>
+    <t>138K</t>
+  </si>
+  <si>
+    <t>284K</t>
+  </si>
+  <si>
+    <t>table.qzv</t>
+  </si>
+  <si>
+    <t>466K</t>
+  </si>
+  <si>
+    <t>507K</t>
+  </si>
+  <si>
+    <t>573K</t>
+  </si>
+  <si>
+    <t>table-with-phyla-no-mitochondria-chloroplast.qza</t>
+  </si>
+  <si>
+    <t>118K</t>
+  </si>
+  <si>
+    <t>172K</t>
+  </si>
+  <si>
+    <t>303K</t>
+  </si>
+  <si>
+    <t>table-with-phyla-no-mitochondria-chloroplasts-archaea.qza</t>
+  </si>
+  <si>
+    <t>123K</t>
+  </si>
+  <si>
+    <t>177K</t>
+  </si>
+  <si>
+    <t>308K</t>
+  </si>
+  <si>
+    <t>taxa-bar-plots.qzv</t>
+  </si>
+  <si>
+    <t>501K</t>
+  </si>
+  <si>
+    <t>680K</t>
+  </si>
+  <si>
+    <t>1.9M</t>
+  </si>
+  <si>
+    <t>taxonomy.qza</t>
+  </si>
+  <si>
+    <t>86K</t>
+  </si>
+  <si>
+    <t>167K</t>
+  </si>
+  <si>
+    <t>taxonomy.qzv</t>
+  </si>
+  <si>
+    <t>1.4M</t>
+  </si>
+  <si>
+    <t>1.5M</t>
+  </si>
+  <si>
+    <t>1.6M</t>
+  </si>
+  <si>
+    <t>unrooted-tree.qza</t>
+  </si>
+  <si>
+    <t>112K</t>
+  </si>
+  <si>
+    <t>139K</t>
+  </si>
+  <si>
+    <t>unweighted_unifrac_distance_matrix.qza</t>
+  </si>
+  <si>
+    <t>155K</t>
+  </si>
+  <si>
+    <t>195K</t>
+  </si>
+  <si>
+    <t>388K</t>
+  </si>
+  <si>
+    <t>unweighted_unifrac_emperor.qzv</t>
+  </si>
+  <si>
+    <t>939K</t>
+  </si>
+  <si>
+    <t>943K</t>
+  </si>
+  <si>
+    <t>951K</t>
+  </si>
+  <si>
+    <t>unweighted_unifrac_pcoa_results.qza</t>
+  </si>
+  <si>
+    <t>162K</t>
+  </si>
+  <si>
+    <t>193K</t>
+  </si>
+  <si>
+    <t>weighted_unifrac_distance_matrix.qza</t>
+  </si>
+  <si>
+    <t>weighted_unifrac_emperor.qzv</t>
+  </si>
+  <si>
+    <t>weighted_unifrac_pcoa_results.qza</t>
+  </si>
+  <si>
+    <t>187K</t>
+  </si>
+  <si>
+    <t>280K</t>
+  </si>
+  <si>
+    <t>weighted-unifrac-emperor-life-stage.qzv</t>
+  </si>
+  <si>
+    <t>weighted-unifrac-life-stage-significance.qzv</t>
+  </si>
+  <si>
+    <t>439K</t>
+  </si>
+  <si>
+    <t>566K</t>
+  </si>
+  <si>
+    <t>874K</t>
+  </si>
 </sst>
 </file>
 
@@ -408,7 +921,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -488,6 +1001,57 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF365F91"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF365F91"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -527,7 +1091,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -631,11 +1195,137 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB8CCE4"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB8CCE4"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFB8CCE4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB8CCE4"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFB8CCE4"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFB8CCE4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFB8CCE4"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFB8CCE4"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF95B3D7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFB8CCE4"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF95B3D7"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFB8CCE4"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFB8CCE4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFB8CCE4"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFB8CCE4"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF95B3D7"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -776,6 +1466,61 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1627,7 +2372,7 @@
       </c>
       <c r="U3" s="7"/>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" ht="15">
       <c r="A4" s="10">
         <v>5026.9120000000003</v>
       </c>
@@ -1688,7 +2433,7 @@
       </c>
       <c r="U4" s="7"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" ht="15">
       <c r="A5" s="10">
         <v>4527.1103333333331</v>
       </c>
@@ -1749,7 +2494,7 @@
       </c>
       <c r="U5" s="7"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" ht="15">
       <c r="A6" s="10">
         <v>4286.9619999999995</v>
       </c>
@@ -1810,7 +2555,7 @@
       </c>
       <c r="U6" s="7"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" ht="15">
       <c r="A7" s="10">
         <v>4117.8559999999998</v>
       </c>
@@ -1871,7 +2616,7 @@
       </c>
       <c r="U7" s="7"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" ht="15">
       <c r="A8" s="10">
         <v>4032.9953333333337</v>
       </c>
@@ -1932,7 +2677,7 @@
       </c>
       <c r="U8" s="7"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" ht="15">
       <c r="A9" s="10">
         <v>3974.1523333333334</v>
       </c>
@@ -1993,7 +2738,7 @@
       </c>
       <c r="U9" s="7"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" ht="15">
       <c r="A10" s="10">
         <v>3919.8163333333337</v>
       </c>
@@ -2054,7 +2799,7 @@
       </c>
       <c r="U10" s="7"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" ht="15">
       <c r="A11" s="10">
         <v>3880.1800000000003</v>
       </c>
@@ -2115,7 +2860,7 @@
       </c>
       <c r="U11" s="7"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" ht="15">
       <c r="A12" s="10">
         <v>3997.9369999999999</v>
       </c>
@@ -2176,7 +2921,7 @@
       </c>
       <c r="U12" s="7"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" ht="15">
       <c r="A13" s="10">
         <v>3798.7630000000004</v>
       </c>
@@ -2237,7 +2982,7 @@
       </c>
       <c r="U13" s="7"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" ht="15">
       <c r="A14" s="10">
         <v>3771.480333333333</v>
       </c>
@@ -2298,7 +3043,7 @@
       </c>
       <c r="U14" s="7"/>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" ht="15">
       <c r="A15" s="10">
         <v>3773.9203333333335</v>
       </c>
@@ -2359,7 +3104,7 @@
       </c>
       <c r="U15" s="7"/>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" ht="15">
       <c r="A16" s="10">
         <v>3732.7413333333334</v>
       </c>
@@ -2420,7 +3165,7 @@
       </c>
       <c r="U16" s="7"/>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" ht="15">
       <c r="A17" s="10">
         <v>3729.0529999999999</v>
       </c>
@@ -2481,7 +3226,7 @@
       </c>
       <c r="U17" s="7"/>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" ht="15">
       <c r="A18" s="10">
         <v>3710.1383333333338</v>
       </c>
@@ -2542,7 +3287,7 @@
       </c>
       <c r="U18" s="7"/>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" ht="15">
       <c r="A19" s="10">
         <v>3718.1650000000004</v>
       </c>
@@ -2603,7 +3348,7 @@
       </c>
       <c r="U19" s="7"/>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" ht="15">
       <c r="A20" s="10">
         <v>3711.1026666666662</v>
       </c>
@@ -2664,7 +3409,7 @@
       </c>
       <c r="U20" s="7"/>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" ht="15">
       <c r="A21" s="10">
         <v>3700.5049999999997</v>
       </c>
@@ -2725,7 +3470,7 @@
       </c>
       <c r="U21" s="7"/>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" ht="15">
       <c r="A22" s="10">
         <v>3684.2993333333329</v>
       </c>
@@ -2786,7 +3531,7 @@
       </c>
       <c r="U22" s="7"/>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" ht="15">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -2966,7 +3711,7 @@
       </c>
       <c r="U26" s="7"/>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" ht="15">
       <c r="A27" s="13">
         <v>6439.7249999999995</v>
       </c>
@@ -3027,7 +3772,7 @@
       </c>
       <c r="U27" s="7"/>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" ht="15">
       <c r="A28" s="13">
         <v>6365.9809999999998</v>
       </c>
@@ -3088,7 +3833,7 @@
       </c>
       <c r="U28" s="7"/>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" ht="15">
       <c r="A29" s="13">
         <v>6425.4603333333334</v>
       </c>
@@ -3149,7 +3894,7 @@
       </c>
       <c r="U29" s="7"/>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" ht="15">
       <c r="A30" s="13">
         <v>6368.6750000000002</v>
       </c>
@@ -3210,7 +3955,7 @@
       </c>
       <c r="U30" s="7"/>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" ht="15">
       <c r="A31" s="13">
         <v>6478.3956666666663</v>
       </c>
@@ -3271,7 +4016,7 @@
       </c>
       <c r="U31" s="7"/>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" ht="15">
       <c r="A32" s="13">
         <v>6352.7150000000001</v>
       </c>
@@ -3332,7 +4077,7 @@
       </c>
       <c r="U32" s="7"/>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" ht="15">
       <c r="A33" s="13">
         <v>6337.9030000000012</v>
       </c>
@@ -3393,7 +4138,7 @@
       </c>
       <c r="U33" s="7"/>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" ht="15">
       <c r="A34" s="13">
         <v>6345.3739999999998</v>
       </c>
@@ -3454,7 +4199,7 @@
       </c>
       <c r="U34" s="7"/>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" ht="15">
       <c r="A35" s="13">
         <v>6751.5010000000002</v>
       </c>
@@ -3515,7 +4260,7 @@
       </c>
       <c r="U35" s="7"/>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" ht="15">
       <c r="A36" s="13">
         <v>6540.3339999999998</v>
       </c>
@@ -24656,7 +25401,7 @@
   </sheetPr>
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -54121,14 +54866,14 @@
         <v>52.7</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="2:6" ht="12.75">
       <c r="B5" s="51"/>
       <c r="C5" s="51"/>
       <c r="D5" s="51"/>
       <c r="E5" s="51"/>
       <c r="F5" s="51"/>
     </row>
-    <row r="6" spans="2:6">
+    <row r="6" spans="2:6" ht="12.75">
       <c r="B6" s="74">
         <v>100</v>
       </c>
@@ -54205,21 +54950,21 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="11" spans="2:6">
+    <row r="11" spans="2:6" ht="12.75">
       <c r="B11" s="34"/>
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
       <c r="F11" s="34"/>
     </row>
-    <row r="12" spans="2:6">
+    <row r="12" spans="2:6" ht="12.75">
       <c r="B12" s="51"/>
       <c r="C12" s="51"/>
       <c r="D12" s="51"/>
       <c r="E12" s="51"/>
       <c r="F12" s="51"/>
     </row>
-    <row r="13" spans="2:6">
+    <row r="13" spans="2:6" ht="12.75">
       <c r="B13" s="75">
         <v>240</v>
       </c>
@@ -54245,7 +54990,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:6" ht="12.75">
       <c r="B15" s="55">
         <v>1</v>
       </c>
@@ -54262,7 +55007,7 @@
         <v>98.1</v>
       </c>
     </row>
-    <row r="16" spans="2:6">
+    <row r="16" spans="2:6" ht="12.75">
       <c r="B16" s="55">
         <v>2</v>
       </c>
@@ -54279,7 +55024,7 @@
         <v>49.9</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" ht="12.75">
       <c r="B17" s="55">
         <v>3</v>
       </c>
@@ -54312,8 +55057,8 @@
   </sheetPr>
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G15:G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -54395,4 +55140,973 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC93F8A-9EF8-4498-B9BE-A07E3FC3371F}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="87.85546875" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="30">
+      <c r="A1" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+    </row>
+    <row r="2" spans="1:3" ht="13.5" thickBot="1">
+      <c r="A2" s="77"/>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A3" s="78"/>
+      <c r="B3" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="79" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A4" s="80">
+        <v>1</v>
+      </c>
+      <c r="B4" s="81" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A5" s="80">
+        <v>2</v>
+      </c>
+      <c r="B5" s="81" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A6" s="80">
+        <v>3</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" s="81" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A7" s="80">
+        <v>4</v>
+      </c>
+      <c r="B7" s="81" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A8" s="80">
+        <v>5</v>
+      </c>
+      <c r="B8" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A9" s="80">
+        <v>6</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" s="81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A10" s="80">
+        <v>7</v>
+      </c>
+      <c r="B10" s="81" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A11" s="80">
+        <v>8</v>
+      </c>
+      <c r="B11" s="81" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="81" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A12" s="80">
+        <v>9</v>
+      </c>
+      <c r="B12" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A13" s="80">
+        <v>10</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A14" s="80">
+        <v>11</v>
+      </c>
+      <c r="B14" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A15" s="80">
+        <v>12</v>
+      </c>
+      <c r="B15" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A16" s="80">
+        <v>13</v>
+      </c>
+      <c r="B16" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="C16" s="81" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A17" s="80">
+        <v>14</v>
+      </c>
+      <c r="B17" s="81" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A18" s="80">
+        <v>15</v>
+      </c>
+      <c r="B18" s="81" t="s">
+        <v>143</v>
+      </c>
+      <c r="C18" s="81" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A19" s="80">
+        <v>16</v>
+      </c>
+      <c r="B19" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A20" s="80">
+        <v>17</v>
+      </c>
+      <c r="B20" s="81" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A21" s="80">
+        <v>18</v>
+      </c>
+      <c r="B21" s="81" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A22" s="80">
+        <v>19</v>
+      </c>
+      <c r="B22" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="81" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15">
+      <c r="A23" s="82"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="82"/>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A24" s="82"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+    </row>
+    <row r="25" spans="1:3" ht="48" thickBot="1">
+      <c r="A25" s="82"/>
+      <c r="B25" s="78" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="83" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="48" thickBot="1">
+      <c r="A26" s="82"/>
+      <c r="B26" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="81" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.5" thickBot="1">
+      <c r="A27" s="82"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="85">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E135AFA3-BC22-4378-92ED-0AF1D0FD8A1F}">
+  <dimension ref="A1:D48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="67.5703125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A1" s="95" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+    </row>
+    <row r="2" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A2" s="90"/>
+      <c r="B2" s="93" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="92"/>
+      <c r="D2" s="94"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" thickTop="1" thickBot="1">
+      <c r="A3" s="91"/>
+      <c r="B3" s="87">
+        <v>50</v>
+      </c>
+      <c r="C3" s="87">
+        <v>100</v>
+      </c>
+      <c r="D3" s="87">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A4" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="89" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="89" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A5" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="89" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A6" s="88" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="89" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="89" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="89" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A7" s="88" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A8" s="88" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="89" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="89" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A9" s="88" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="89" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="89" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A10" s="88" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="89" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A11" s="88" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="89" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="89" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A12" s="88" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="89" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="89" t="s">
+        <v>183</v>
+      </c>
+      <c r="D12" s="89" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A13" s="88" t="s">
+        <v>185</v>
+      </c>
+      <c r="B13" s="89" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="89" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" s="89" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A14" s="88" t="s">
+        <v>189</v>
+      </c>
+      <c r="B14" s="89" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="89" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="89" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A15" s="88" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="89" t="s">
+        <v>193</v>
+      </c>
+      <c r="C15" s="89" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" s="89" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A16" s="88" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" s="89" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A17" s="88" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="89" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="89" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="89" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A18" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="89" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="89" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A19" s="88" t="s">
+        <v>201</v>
+      </c>
+      <c r="B19" s="89" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="89" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" s="89" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A20" s="88" t="s">
+        <v>204</v>
+      </c>
+      <c r="B20" s="89" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="89" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20" s="89" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A21" s="88" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" s="89" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="89" t="s">
+        <v>206</v>
+      </c>
+      <c r="D21" s="89" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A22" s="88" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" s="89" t="s">
+        <v>209</v>
+      </c>
+      <c r="C22" s="89" t="s">
+        <v>210</v>
+      </c>
+      <c r="D22" s="89" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A23" s="88" t="s">
+        <v>212</v>
+      </c>
+      <c r="B23" s="89" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="89" t="s">
+        <v>214</v>
+      </c>
+      <c r="D23" s="89" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A24" s="88" t="s">
+        <v>216</v>
+      </c>
+      <c r="B24" s="89" t="s">
+        <v>217</v>
+      </c>
+      <c r="C24" s="89" t="s">
+        <v>218</v>
+      </c>
+      <c r="D24" s="89" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A25" s="88" t="s">
+        <v>220</v>
+      </c>
+      <c r="B25" s="89" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="89" t="s">
+        <v>222</v>
+      </c>
+      <c r="D25" s="89" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A26" s="88" t="s">
+        <v>224</v>
+      </c>
+      <c r="B26" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" s="89" t="s">
+        <v>226</v>
+      </c>
+      <c r="D26" s="89" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A27" s="88" t="s">
+        <v>228</v>
+      </c>
+      <c r="B27" s="89" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="89" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" s="89" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A28" s="88" t="s">
+        <v>229</v>
+      </c>
+      <c r="B28" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="D28" s="89" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A29" s="88" t="s">
+        <v>230</v>
+      </c>
+      <c r="B29" s="89" t="s">
+        <v>231</v>
+      </c>
+      <c r="C29" s="89" t="s">
+        <v>231</v>
+      </c>
+      <c r="D29" s="89" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A30" s="88" t="s">
+        <v>233</v>
+      </c>
+      <c r="B30" s="89" t="s">
+        <v>234</v>
+      </c>
+      <c r="C30" s="89" t="s">
+        <v>235</v>
+      </c>
+      <c r="D30" s="89" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A31" s="88" t="s">
+        <v>237</v>
+      </c>
+      <c r="B31" s="89" t="s">
+        <v>238</v>
+      </c>
+      <c r="C31" s="89" t="s">
+        <v>239</v>
+      </c>
+      <c r="D31" s="89" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A32" s="88" t="s">
+        <v>241</v>
+      </c>
+      <c r="B32" s="89" t="s">
+        <v>242</v>
+      </c>
+      <c r="C32" s="89" t="s">
+        <v>242</v>
+      </c>
+      <c r="D32" s="89" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A33" s="88" t="s">
+        <v>243</v>
+      </c>
+      <c r="B33" s="89" t="s">
+        <v>178</v>
+      </c>
+      <c r="C33" s="89" t="s">
+        <v>244</v>
+      </c>
+      <c r="D33" s="89" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A34" s="88" t="s">
+        <v>246</v>
+      </c>
+      <c r="B34" s="89" t="s">
+        <v>247</v>
+      </c>
+      <c r="C34" s="89" t="s">
+        <v>248</v>
+      </c>
+      <c r="D34" s="89" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A35" s="88" t="s">
+        <v>250</v>
+      </c>
+      <c r="B35" s="89" t="s">
+        <v>251</v>
+      </c>
+      <c r="C35" s="89" t="s">
+        <v>252</v>
+      </c>
+      <c r="D35" s="89" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A36" s="88" t="s">
+        <v>254</v>
+      </c>
+      <c r="B36" s="89" t="s">
+        <v>255</v>
+      </c>
+      <c r="C36" s="89" t="s">
+        <v>256</v>
+      </c>
+      <c r="D36" s="89" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A37" s="88" t="s">
+        <v>258</v>
+      </c>
+      <c r="B37" s="89" t="s">
+        <v>259</v>
+      </c>
+      <c r="C37" s="89" t="s">
+        <v>260</v>
+      </c>
+      <c r="D37" s="89" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A38" s="88" t="s">
+        <v>262</v>
+      </c>
+      <c r="B38" s="89" t="s">
+        <v>263</v>
+      </c>
+      <c r="C38" s="89" t="s">
+        <v>251</v>
+      </c>
+      <c r="D38" s="89" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A39" s="88" t="s">
+        <v>265</v>
+      </c>
+      <c r="B39" s="89" t="s">
+        <v>266</v>
+      </c>
+      <c r="C39" s="89" t="s">
+        <v>267</v>
+      </c>
+      <c r="D39" s="89" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A40" s="88" t="s">
+        <v>269</v>
+      </c>
+      <c r="B40" s="89" t="s">
+        <v>270</v>
+      </c>
+      <c r="C40" s="89" t="s">
+        <v>271</v>
+      </c>
+      <c r="D40" s="89" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A41" s="88" t="s">
+        <v>272</v>
+      </c>
+      <c r="B41" s="89" t="s">
+        <v>273</v>
+      </c>
+      <c r="C41" s="89" t="s">
+        <v>274</v>
+      </c>
+      <c r="D41" s="89" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A42" s="88" t="s">
+        <v>276</v>
+      </c>
+      <c r="B42" s="89" t="s">
+        <v>277</v>
+      </c>
+      <c r="C42" s="89" t="s">
+        <v>278</v>
+      </c>
+      <c r="D42" s="89" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A43" s="88" t="s">
+        <v>280</v>
+      </c>
+      <c r="B43" s="89" t="s">
+        <v>281</v>
+      </c>
+      <c r="C43" s="89" t="s">
+        <v>282</v>
+      </c>
+      <c r="D43" s="89" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A44" s="88" t="s">
+        <v>283</v>
+      </c>
+      <c r="B44" s="89" t="s">
+        <v>273</v>
+      </c>
+      <c r="C44" s="89" t="s">
+        <v>274</v>
+      </c>
+      <c r="D44" s="89" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A45" s="88" t="s">
+        <v>284</v>
+      </c>
+      <c r="B45" s="89" t="s">
+        <v>277</v>
+      </c>
+      <c r="C45" s="89" t="s">
+        <v>278</v>
+      </c>
+      <c r="D45" s="89" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A46" s="88" t="s">
+        <v>285</v>
+      </c>
+      <c r="B46" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" s="89" t="s">
+        <v>286</v>
+      </c>
+      <c r="D46" s="89" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A47" s="88" t="s">
+        <v>288</v>
+      </c>
+      <c r="B47" s="89" t="s">
+        <v>277</v>
+      </c>
+      <c r="C47" s="89" t="s">
+        <v>278</v>
+      </c>
+      <c r="D47" s="89" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="13.5" thickBot="1">
+      <c r="A48" s="88" t="s">
+        <v>289</v>
+      </c>
+      <c r="B48" s="89" t="s">
+        <v>290</v>
+      </c>
+      <c r="C48" s="89" t="s">
+        <v>291</v>
+      </c>
+      <c r="D48" s="89" t="s">
+        <v>292</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>